--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.05176699999999999</v>
+        <v>0.067832</v>
       </c>
       <c r="N2">
-        <v>0.103534</v>
+        <v>0.135664</v>
       </c>
       <c r="O2">
-        <v>0.144859998330343</v>
+        <v>0.05462407962656259</v>
       </c>
       <c r="P2">
-        <v>0.1447143494116183</v>
+        <v>0.03709141454489581</v>
       </c>
       <c r="Q2">
-        <v>10.0986669394295</v>
+        <v>12.31112864954</v>
       </c>
       <c r="R2">
-        <v>40.39466775771799</v>
+        <v>49.24451459816001</v>
       </c>
       <c r="S2">
-        <v>0.03825181116513283</v>
+        <v>0.01223298871621317</v>
       </c>
       <c r="T2">
-        <v>0.02868681612357165</v>
+        <v>0.006136214773113789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0007193333333333332</v>
+        <v>1.173964666666667</v>
       </c>
       <c r="N3">
-        <v>0.002158</v>
+        <v>3.521894</v>
       </c>
       <c r="O3">
-        <v>0.00201291605589713</v>
+        <v>0.9453759203734375</v>
       </c>
       <c r="P3">
-        <v>0.003016338265982888</v>
+        <v>0.9629085854551043</v>
       </c>
       <c r="Q3">
-        <v>0.1403269988943333</v>
+        <v>213.0680216026017</v>
       </c>
       <c r="R3">
-        <v>0.8419619933659998</v>
+        <v>1278.40812961561</v>
       </c>
       <c r="S3">
-        <v>0.0005315317254515853</v>
+        <v>0.211715658104822</v>
       </c>
       <c r="T3">
-        <v>0.0005979306237049434</v>
+        <v>0.1592986937738886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>187.223767</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.3048725</v>
+        <v>0.067832</v>
       </c>
       <c r="N4">
-        <v>0.609745</v>
+        <v>0.135664</v>
       </c>
       <c r="O4">
-        <v>0.8531270856137599</v>
+        <v>0.05462407962656259</v>
       </c>
       <c r="P4">
-        <v>0.8522693123223988</v>
+        <v>0.03709141454489581</v>
       </c>
       <c r="Q4">
-        <v>59.47429513959124</v>
+        <v>4.233254187714667</v>
       </c>
       <c r="R4">
-        <v>237.897180558365</v>
+        <v>25.399525126288</v>
       </c>
       <c r="S4">
-        <v>0.2252772094083482</v>
+        <v>0.004206385310830992</v>
       </c>
       <c r="T4">
-        <v>0.168945879588031</v>
+        <v>0.003164960454617352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J5">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05176699999999999</v>
+        <v>1.173964666666667</v>
       </c>
       <c r="N5">
-        <v>0.103534</v>
+        <v>3.521894</v>
       </c>
       <c r="O5">
-        <v>0.144859998330343</v>
+        <v>0.9453759203734375</v>
       </c>
       <c r="P5">
-        <v>0.1447143494116183</v>
+        <v>0.9629085854551043</v>
       </c>
       <c r="Q5">
-        <v>3.230670915429667</v>
+        <v>73.2646957394109</v>
       </c>
       <c r="R5">
-        <v>19.384025492578</v>
+        <v>659.382261654698</v>
       </c>
       <c r="S5">
-        <v>0.01223716105649522</v>
+        <v>0.07279967757549931</v>
       </c>
       <c r="T5">
-        <v>0.01376582618219371</v>
+        <v>0.08216369291303606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.40792233333334</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H6">
-        <v>187.223767</v>
+        <v>515.994095</v>
       </c>
       <c r="I6">
-        <v>0.08447577797556809</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J6">
-        <v>0.09512412720758515</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0007193333333333332</v>
+        <v>0.067832</v>
       </c>
       <c r="N6">
-        <v>0.002158</v>
+        <v>0.135664</v>
       </c>
       <c r="O6">
-        <v>0.00201291605589713</v>
+        <v>0.05462407962656259</v>
       </c>
       <c r="P6">
-        <v>0.003016338265982888</v>
+        <v>0.03709141454489581</v>
       </c>
       <c r="Q6">
-        <v>0.04489209879844444</v>
+        <v>11.66697048401333</v>
       </c>
       <c r="R6">
-        <v>0.404028889186</v>
+        <v>70.00182290408</v>
       </c>
       <c r="S6">
-        <v>0.0001700426498214222</v>
+        <v>0.0115929190853399</v>
       </c>
       <c r="T6">
-        <v>0.0002869265449144631</v>
+        <v>0.008722722182441019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.40792233333334</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H7">
-        <v>187.223767</v>
+        <v>515.994095</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3048725</v>
+        <v>1.173964666666667</v>
       </c>
       <c r="N7">
-        <v>0.609745</v>
+        <v>3.521894</v>
       </c>
       <c r="O7">
-        <v>0.8531270856137599</v>
+        <v>0.9453759203734375</v>
       </c>
       <c r="P7">
-        <v>0.8522693123223988</v>
+        <v>0.9629085854551043</v>
       </c>
       <c r="Q7">
-        <v>19.02645930156917</v>
+        <v>201.9196119128811</v>
       </c>
       <c r="R7">
-        <v>114.158755809415</v>
+        <v>1817.27650721593</v>
       </c>
       <c r="S7">
-        <v>0.07206857426925145</v>
+        <v>0.2006380084578768</v>
       </c>
       <c r="T7">
-        <v>0.08107137448047698</v>
+        <v>0.226445504466962</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.8621113333333</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H8">
-        <v>428.586334</v>
+        <v>111.285591</v>
       </c>
       <c r="I8">
-        <v>0.1933791023142199</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J8">
-        <v>0.2177549443006804</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,33 +933,33 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.05176699999999999</v>
+        <v>0.067832</v>
       </c>
       <c r="N8">
-        <v>0.103534</v>
+        <v>0.135664</v>
       </c>
       <c r="O8">
-        <v>0.144859998330343</v>
+        <v>0.05462407962656259</v>
       </c>
       <c r="P8">
-        <v>0.1447143494116183</v>
+        <v>0.03709141454489581</v>
       </c>
       <c r="Q8">
-        <v>7.395542917392666</v>
+        <v>3.774362104356001</v>
       </c>
       <c r="R8">
-        <v>44.37325750435599</v>
+        <v>15.097448417424</v>
       </c>
       <c r="S8">
-        <v>0.02801289643836113</v>
+        <v>0.003750405860246997</v>
       </c>
       <c r="T8">
-        <v>0.03151226509563616</v>
+        <v>0.00188124884103908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.8621113333333</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H9">
-        <v>428.586334</v>
+        <v>111.285591</v>
       </c>
       <c r="I9">
-        <v>0.1933791023142199</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J9">
-        <v>0.2177549443006804</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0007193333333333332</v>
+        <v>1.173964666666667</v>
       </c>
       <c r="N9">
-        <v>0.002158</v>
+        <v>3.521894</v>
       </c>
       <c r="O9">
-        <v>0.00201291605589713</v>
+        <v>0.9453759203734375</v>
       </c>
       <c r="P9">
-        <v>0.003016338265982888</v>
+        <v>0.9629085854551043</v>
       </c>
       <c r="Q9">
-        <v>0.1027654787524444</v>
+        <v>65.32267587155901</v>
       </c>
       <c r="R9">
-        <v>0.9248893087719998</v>
+        <v>391.9360552293541</v>
       </c>
       <c r="S9">
-        <v>0.0003892558999232671</v>
+        <v>0.06490806648174284</v>
       </c>
       <c r="T9">
-        <v>0.0006568225711011149</v>
+        <v>0.04883800422929067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.8621113333333</v>
+        <v>203.386317</v>
       </c>
       <c r="H10">
-        <v>428.586334</v>
+        <v>610.158951</v>
       </c>
       <c r="I10">
-        <v>0.1933791023142199</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J10">
-        <v>0.2177549443006804</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.3048725</v>
+        <v>0.067832</v>
       </c>
       <c r="N10">
-        <v>0.609745</v>
+        <v>0.135664</v>
       </c>
       <c r="O10">
-        <v>0.8531270856137599</v>
+        <v>0.05462407962656259</v>
       </c>
       <c r="P10">
-        <v>0.8522693123223988</v>
+        <v>0.03709141454489581</v>
       </c>
       <c r="Q10">
-        <v>43.55472903747167</v>
+        <v>13.796100654744</v>
       </c>
       <c r="R10">
-        <v>261.32837422483</v>
+        <v>82.776603928464</v>
       </c>
       <c r="S10">
-        <v>0.1649769499759355</v>
+        <v>0.01370853545938132</v>
       </c>
       <c r="T10">
-        <v>0.1855858566339432</v>
+        <v>0.01031455024054615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.01711450000001</v>
+        <v>203.386317</v>
       </c>
       <c r="H11">
-        <v>106.034229</v>
+        <v>610.158951</v>
       </c>
       <c r="I11">
-        <v>0.07176431814995911</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J11">
-        <v>0.05387357411601602</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05176699999999999</v>
+        <v>1.173964666666667</v>
       </c>
       <c r="N11">
-        <v>0.103534</v>
+        <v>3.521894</v>
       </c>
       <c r="O11">
-        <v>0.144859998330343</v>
+        <v>0.9453759203734375</v>
       </c>
       <c r="P11">
-        <v>0.1447143494116183</v>
+        <v>0.9629085854551043</v>
       </c>
       <c r="Q11">
-        <v>2.7445369663215</v>
+        <v>238.768349841466</v>
       </c>
       <c r="R11">
-        <v>10.978147865286</v>
+        <v>2148.915148573194</v>
       </c>
       <c r="S11">
-        <v>0.01039577900738128</v>
+        <v>0.2372528638557138</v>
       </c>
       <c r="T11">
-        <v>0.00779627922867786</v>
+        <v>0.2677700245081823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>53.01711450000001</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H12">
-        <v>106.034229</v>
+        <v>406.497635</v>
       </c>
       <c r="I12">
-        <v>0.07176431814995911</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J12">
-        <v>0.05387357411601602</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.0007193333333333332</v>
+        <v>0.067832</v>
       </c>
       <c r="N12">
-        <v>0.002158</v>
+        <v>0.135664</v>
       </c>
       <c r="O12">
-        <v>0.00201291605589713</v>
+        <v>0.05462407962656259</v>
       </c>
       <c r="P12">
-        <v>0.003016338265982888</v>
+        <v>0.03709141454489581</v>
       </c>
       <c r="Q12">
-        <v>0.03813697769699999</v>
+        <v>9.191182525773334</v>
       </c>
       <c r="R12">
-        <v>0.228821866182</v>
+        <v>55.14709515464001</v>
       </c>
       <c r="S12">
-        <v>0.0001444555482445625</v>
+        <v>0.009132845194550208</v>
       </c>
       <c r="T12">
-        <v>0.0001625009231314044</v>
+        <v>0.006871718053138405</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>53.01711450000001</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H13">
-        <v>106.034229</v>
+        <v>406.497635</v>
       </c>
       <c r="I13">
-        <v>0.07176431814995911</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J13">
-        <v>0.05387357411601602</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3048725</v>
+        <v>1.173964666666667</v>
       </c>
       <c r="N13">
-        <v>0.609745</v>
+        <v>3.521894</v>
       </c>
       <c r="O13">
-        <v>0.8531270856137599</v>
+        <v>0.9453759203734375</v>
       </c>
       <c r="P13">
-        <v>0.8522693123223988</v>
+        <v>0.9629085854551043</v>
       </c>
       <c r="Q13">
-        <v>16.16346024040125</v>
+        <v>159.0712868578545</v>
       </c>
       <c r="R13">
-        <v>64.653840961605</v>
+        <v>1431.64158172069</v>
       </c>
       <c r="S13">
-        <v>0.06122408359433327</v>
+        <v>0.1580616458977828</v>
       </c>
       <c r="T13">
-        <v>0.04591479396420676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>143.783834</v>
-      </c>
-      <c r="H14">
-        <v>431.351502</v>
-      </c>
-      <c r="I14">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J14">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.05176699999999999</v>
-      </c>
-      <c r="N14">
-        <v>0.103534</v>
-      </c>
-      <c r="O14">
-        <v>0.144859998330343</v>
-      </c>
-      <c r="P14">
-        <v>0.1447143494116183</v>
-      </c>
-      <c r="Q14">
-        <v>7.443257734677998</v>
-      </c>
-      <c r="R14">
-        <v>44.659546408068</v>
-      </c>
-      <c r="S14">
-        <v>0.02819363100377699</v>
-      </c>
-      <c r="T14">
-        <v>0.0317155770077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>143.783834</v>
-      </c>
-      <c r="H15">
-        <v>431.351502</v>
-      </c>
-      <c r="I15">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J15">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.0007193333333333332</v>
-      </c>
-      <c r="N15">
-        <v>0.002158</v>
-      </c>
-      <c r="O15">
-        <v>0.00201291605589713</v>
-      </c>
-      <c r="P15">
-        <v>0.003016338265982888</v>
-      </c>
-      <c r="Q15">
-        <v>0.1034285045906666</v>
-      </c>
-      <c r="R15">
-        <v>0.9308565413159998</v>
-      </c>
-      <c r="S15">
-        <v>0.0003917673144805941</v>
-      </c>
-      <c r="T15">
-        <v>0.0006610602814787083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>143.783834</v>
-      </c>
-      <c r="H16">
-        <v>431.351502</v>
-      </c>
-      <c r="I16">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J16">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.3048725</v>
-      </c>
-      <c r="N16">
-        <v>0.609745</v>
-      </c>
-      <c r="O16">
-        <v>0.8531270856137599</v>
-      </c>
-      <c r="P16">
-        <v>0.8522693123223988</v>
-      </c>
-      <c r="Q16">
-        <v>43.83573693116499</v>
-      </c>
-      <c r="R16">
-        <v>263.01442158699</v>
-      </c>
-      <c r="S16">
-        <v>0.1660413539165685</v>
-      </c>
-      <c r="T16">
-        <v>0.1867832258249467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H17">
-        <v>424.850525</v>
-      </c>
-      <c r="I17">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J17">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.05176699999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.103534</v>
-      </c>
-      <c r="O17">
-        <v>0.144859998330343</v>
-      </c>
-      <c r="P17">
-        <v>0.1447143494116183</v>
-      </c>
-      <c r="Q17">
-        <v>7.331079042558332</v>
-      </c>
-      <c r="R17">
-        <v>43.98647425535</v>
-      </c>
-      <c r="S17">
-        <v>0.02776871965919556</v>
-      </c>
-      <c r="T17">
-        <v>0.03123758577383897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H18">
-        <v>424.850525</v>
-      </c>
-      <c r="I18">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J18">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.0007193333333333332</v>
-      </c>
-      <c r="N18">
-        <v>0.002158</v>
-      </c>
-      <c r="O18">
-        <v>0.00201291605589713</v>
-      </c>
-      <c r="P18">
-        <v>0.003016338265982888</v>
-      </c>
-      <c r="Q18">
-        <v>0.1018697147722222</v>
-      </c>
-      <c r="R18">
-        <v>0.9168274329499999</v>
-      </c>
-      <c r="S18">
-        <v>0.0003858629179756989</v>
-      </c>
-      <c r="T18">
-        <v>0.0006510973216522543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H19">
-        <v>424.850525</v>
-      </c>
-      <c r="I19">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J19">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3048725</v>
-      </c>
-      <c r="N19">
-        <v>0.609745</v>
-      </c>
-      <c r="O19">
-        <v>0.8531270856137599</v>
-      </c>
-      <c r="P19">
-        <v>0.8522693123223988</v>
-      </c>
-      <c r="Q19">
-        <v>43.17508056102083</v>
-      </c>
-      <c r="R19">
-        <v>259.050483366125</v>
-      </c>
-      <c r="S19">
-        <v>0.1635389144493229</v>
-      </c>
-      <c r="T19">
-        <v>0.1839681818307942</v>
+        <v>0.1783926655637445</v>
       </c>
     </row>
   </sheetData>
